--- a/biology/Zoologie/Chiasmocleis_quilombola/Chiasmocleis_quilombola.xlsx
+++ b/biology/Zoologie/Chiasmocleis_quilombola/Chiasmocleis_quilombola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis quilombola est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis quilombola est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Espírito Santo au Brésil. Elle se rencontre entre le rio Doce et le rio Mucuri dans les municipalités de Conceição da Barra, de Pinheiros et de Linhares[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Espírito Santo au Brésil. Elle se rencontre entre le rio Doce et le rio Mucuri dans les municipalités de Conceição da Barra, de Pinheiros et de Linhares.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 7 spécimens mâles observés lors de la description originale mesurent entre 14,4 mm et 16,6 mm et le spécimen femelle observé lors de la description originale mesure 17,2 mm. Le corps est ovoïde avec une tête triangulaire et des petits yeux saillants. Les doigts ne sont pas palmés. La peau est lisse et dépourvu d'épines dermiques. La coloration est brun foncé avec des taches de couleur crème. La gorge est noir et le ventre est de couleur crème[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 7 spécimens mâles observés lors de la description originale mesurent entre 14,4 mm et 16,6 mm et le spécimen femelle observé lors de la description originale mesure 17,2 mm. Le corps est ovoïde avec une tête triangulaire et des petits yeux saillants. Les doigts ne sont pas palmés. La peau est lisse et dépourvu d'épines dermiques. La coloration est brun foncé avec des taches de couleur crème. La gorge est noir et le ventre est de couleur crème.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence aux communautés quilombos, formées par des esclaves fugitifs[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence aux communautés quilombos, formées par des esclaves fugitifs.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tonini, Forlani &amp; de Sá, 2014 : A new species of Chiasmocleis (Microhylidae, Gastrophryninae) from the Atlantic Forest of Espírito Santo State, Brazil. ZooKeys, no 428, p. 109–132 (texte intégral).</t>
         </is>
